--- a/biology/Zoologie/Dynaste_Neptune/Dynaste_Neptune.xlsx
+++ b/biology/Zoologie/Dynaste_Neptune/Dynaste_Neptune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dynastes neptunus
 Le dynaste Neptune (Dynastes neptunus) est une espèce d'insectes coléoptères de la famille des Scarabaeidae. Il se caractérise par une couleur brune très foncée, voire noire brillante, sur l'ensemble du corps. Contrairement aux autres dynastes, ses élytres sont donc de la même teinte que son thorax.
@@ -515,7 +527,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Panama, Colombie, Venezuela, Équateur, Brésil,  Pérou.
  Portail de l’entomologie                     </t>
